--- a/productList.xlsx
+++ b/productList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>No.</t>
   </si>
@@ -41,55 +41,10 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>Pc.</t>
-  </si>
-  <si>
-    <t>Kilo</t>
-  </si>
-  <si>
-    <t>Aircon</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
     <t>Bundle</t>
-  </si>
-  <si>
-    <t>Cloud 9</t>
-  </si>
-  <si>
-    <t>Coke in Can</t>
-  </si>
-  <si>
-    <t>KUAN</t>
-  </si>
-  <si>
-    <t>Mega Sardines</t>
-  </si>
-  <si>
-    <t>Melona Strawberry</t>
-  </si>
-  <si>
-    <t>Nido</t>
-  </si>
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>Tanduay</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>water melon</t>
   </si>
 </sst>
 </file>
@@ -465,19 +420,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H16"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -513,387 +468,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2">
-        <v>2.02</v>
+        <v>500</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>233.33</v>
       </c>
       <c r="H2" s="2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>21212</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2">
-        <v>202.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>21.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21212</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42000.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>200</v>
-      </c>
-      <c r="F7" s="2">
-        <v>240.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>25.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1212</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>212</v>
-      </c>
-      <c r="F10" s="2">
-        <v>258.64</v>
-      </c>
-      <c r="G10" s="2">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>27.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2">
-        <v>120</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2">
-        <v>130</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>13.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>123</v>
-      </c>
-      <c r="F14" s="2">
-        <v>148.83</v>
-      </c>
-      <c r="G14" s="2">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2">
-        <v>135.0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2">
-        <v>26.25</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2.81</v>
+        <v>53.57</v>
       </c>
     </row>
   </sheetData>

--- a/productList.xlsx
+++ b/productList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>No.</t>
   </si>
@@ -41,10 +41,49 @@
     <t>Tax</t>
   </si>
   <si>
+    <t>Mega Sardines1</t>
+  </si>
+  <si>
+    <t>Pc.</t>
+  </si>
+  <si>
+    <t>Chippy</t>
+  </si>
+  <si>
+    <t>Cloud 9</t>
+  </si>
+  <si>
+    <t>Ml.</t>
+  </si>
+  <si>
+    <t>Melona Strawberry</t>
+  </si>
+  <si>
+    <t>Sachet</t>
+  </si>
+  <si>
+    <t>Coke in Can</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Melona</t>
+  </si>
+  <si>
     <t>Cement</t>
   </si>
   <si>
     <t>Bundle</t>
+  </si>
+  <si>
+    <t>Tanduay</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
   </si>
 </sst>
 </file>
@@ -420,19 +459,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -468,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -477,16 +516,248 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1040</v>
+      </c>
+      <c r="G4" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2">
+        <v>111.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>900</v>
+      </c>
+      <c r="F5" s="2">
+        <v>920</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>98.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>222</v>
+      </c>
+      <c r="F6" s="2">
+        <v>244</v>
+      </c>
+      <c r="G6" s="2">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
         <v>150</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F8" s="2">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G8" s="2">
         <v>233.33</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H8" s="2">
         <v>53.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2">
+        <v>148.35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1212121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21212</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21636.24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2318.17</v>
       </c>
     </row>
   </sheetData>
